--- a/BUSCADOR REPUESTOS.xlsx
+++ b/BUSCADOR REPUESTOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\JUAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7200063-3B52-4104-A074-893AEDBF8A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A40185-D99B-45F6-868E-6EEA28F4EC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" INVENTARIO" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4763" uniqueCount="2595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4765" uniqueCount="2597">
   <si>
     <t>CASA COMERCIAL</t>
   </si>
@@ -7826,13 +7826,19 @@
   </si>
   <si>
     <t>IMAGEN</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1n5Ot1XeLZzrpMosw9YN_8lp8hte-OxzK</t>
+  </si>
+  <si>
+    <t>Cajón AF para unidad de lectura (Comp) para OS Windows</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -7862,6 +7868,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -7989,10 +8002,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8033,8 +8047,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
@@ -8595,7 +8611,7 @@
   <dimension ref="A1:H2123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8604,10 +8620,10 @@
     <col min="2" max="2" width="18.453125" customWidth="1"/>
     <col min="3" max="3" width="17.26953125" customWidth="1"/>
     <col min="4" max="4" width="129" customWidth="1"/>
-    <col min="5" max="5" width="23.90625" customWidth="1"/>
+    <col min="5" max="5" width="48.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.26953125" customWidth="1"/>
     <col min="7" max="7" width="30.08984375" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" style="15"/>
+    <col min="8" max="8" width="64.453125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -8649,10 +8665,15 @@
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>2596</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="6">
         <v>4</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>2595</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39585,9 +39606,12 @@
       <c r="G2123" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{19DDD147-1DA0-4929-B225-E450ED82D34C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/BUSCADOR REPUESTOS.xlsx
+++ b/BUSCADOR REPUESTOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\JUAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A40185-D99B-45F6-868E-6EEA28F4EC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848144FE-74CA-4AF8-AC7C-E8FC594EA62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7828,10 +7828,10 @@
     <t>IMAGEN</t>
   </si>
   <si>
-    <t>https://drive.google.com/drive/folders/1n5Ot1XeLZzrpMosw9YN_8lp8hte-OxzK</t>
-  </si>
-  <si>
     <t>Cajón AF para unidad de lectura (Comp) para OS Windows</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1S0IDSKAvFxDN0rDQVZRIoyEDbueGT-_O/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -8610,8 +8610,8 @@
   </sheetPr>
   <dimension ref="A1:H2123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8623,7 +8623,7 @@
     <col min="5" max="5" width="48.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.26953125" customWidth="1"/>
     <col min="7" max="7" width="30.08984375" customWidth="1"/>
-    <col min="8" max="8" width="64.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="75.81640625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.25">
@@ -8666,14 +8666,14 @@
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="6">
         <v>4</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>2595</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -39607,7 +39607,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{19DDD147-1DA0-4929-B225-E450ED82D34C}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{0A726144-6D62-4D75-A5FC-E7842372E020}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/BUSCADOR REPUESTOS.xlsx
+++ b/BUSCADOR REPUESTOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\JUAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848144FE-74CA-4AF8-AC7C-E8FC594EA62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71505013-31A7-4EFE-8960-42E435609A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8611,7 +8611,7 @@
   <dimension ref="A1:H2123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39607,7 +39607,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{0A726144-6D62-4D75-A5FC-E7842372E020}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{BEF85DC5-0CCC-4CDD-B5E6-9726BF66D2B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/BUSCADOR REPUESTOS.xlsx
+++ b/BUSCADOR REPUESTOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\JUAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71505013-31A7-4EFE-8960-42E435609A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019FD940-E44C-471D-9177-BD3D8393971C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7831,7 +7831,7 @@
     <t>Cajón AF para unidad de lectura (Comp) para OS Windows</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1S0IDSKAvFxDN0rDQVZRIoyEDbueGT-_O/view?usp=sharing</t>
+    <t>https://drive.google.com/uc?id=1S0IDSKAvFxDN0rDQVZRIoyEDbueGT-_O</t>
   </si>
 </sst>
 </file>
@@ -8610,8 +8610,8 @@
   </sheetPr>
   <dimension ref="A1:H2123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/BUSCADOR REPUESTOS.xlsx
+++ b/BUSCADOR REPUESTOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\JUAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019FD940-E44C-471D-9177-BD3D8393971C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC533A33-0510-466A-AAF3-D0893FB1EA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8047,7 +8047,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -8610,8 +8610,8 @@
   </sheetPr>
   <dimension ref="A1:H2123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39607,7 +39607,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{BEF85DC5-0CCC-4CDD-B5E6-9726BF66D2B1}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{2355844A-96A1-480C-95A2-8E91D3163CAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/BUSCADOR REPUESTOS.xlsx
+++ b/BUSCADOR REPUESTOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\JUAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC533A33-0510-466A-AAF3-D0893FB1EA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204CECE2-2FC7-4AE2-8A31-6B2996685FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4765" uniqueCount="2597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4766" uniqueCount="2597">
   <si>
     <t>CASA COMERCIAL</t>
   </si>
@@ -8006,7 +8006,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8048,6 +8048,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -8611,7 +8612,7 @@
   <dimension ref="A1:H2123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27182,7 +27183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="977" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A977" s="1" t="s">
         <v>1996</v>
       </c>
@@ -27200,8 +27201,11 @@
       <c r="G977" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="978" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="H977" s="17" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="978" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A978" s="1" t="s">
         <v>1996</v>
       </c>
@@ -27220,7 +27224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="979" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A979" s="1" t="s">
         <v>1996</v>
       </c>
@@ -27239,7 +27243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="980" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A980" s="1" t="s">
         <v>1996</v>
       </c>
@@ -27258,7 +27262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="981" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A981" s="1" t="s">
         <v>1996</v>
       </c>
@@ -27277,7 +27281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A982" s="1" t="s">
         <v>1996</v>
       </c>
@@ -27296,7 +27300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="983" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A983" s="1" t="s">
         <v>1996</v>
       </c>
@@ -27315,7 +27319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="984" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A984" s="1" t="s">
         <v>1996</v>
       </c>
@@ -27334,7 +27338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="985" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A985" s="1" t="s">
         <v>1996</v>
       </c>
@@ -27353,7 +27357,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="986" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A986" s="1" t="s">
         <v>1996</v>
       </c>
@@ -27372,7 +27376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="987" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A987" s="1" t="s">
         <v>1996</v>
       </c>
@@ -27391,7 +27395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="988" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A988" s="1" t="s">
         <v>1996</v>
       </c>
@@ -27410,7 +27414,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="989" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A989" s="1" t="s">
         <v>1996</v>
       </c>
@@ -27429,7 +27433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="990" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A990" s="1" t="s">
         <v>1996</v>
       </c>
@@ -27448,7 +27452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="991" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A991" s="1" t="s">
         <v>1996</v>
       </c>
@@ -27467,7 +27471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="992" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A992" s="1" t="s">
         <v>1996</v>
       </c>
@@ -39608,10 +39612,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{2355844A-96A1-480C-95A2-8E91D3163CAB}"/>
+    <hyperlink ref="H977" r:id="rId2" xr:uid="{016B5237-1F03-48C7-BE2C-C25497BF47F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>